--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/91.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/91.xlsx
@@ -479,13 +479,13 @@
         <v>-0.03844514979029915</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.517943191830559</v>
+        <v>-2.64951528021865</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06402920568776503</v>
+        <v>-0.03689261493789043</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1235854440833213</v>
+        <v>0.2298653418480239</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.03499629930449987</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.662409613245781</v>
+        <v>-2.802558406190303</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1237434895447836</v>
+        <v>-0.1140427011811058</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1322139918972761</v>
+        <v>0.2450511468576971</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.03549793951058714</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.844885681315265</v>
+        <v>-3.038967929942588</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1995816364123139</v>
+        <v>-0.2141642298726832</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1403192277705811</v>
+        <v>0.2615232745746319</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.04295164935802754</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.987285386517326</v>
+        <v>-3.23778224814046</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2517292443535961</v>
+        <v>-0.278790204939554</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1839743002088233</v>
+        <v>0.3016170201813422</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.05460108759376433</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.068649414716194</v>
+        <v>-3.384552339951759</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3004161623750098</v>
+        <v>-0.3364533255606689</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1783050875184501</v>
+        <v>0.2880828803643028</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.06390394775375066</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.839033492421867</v>
+        <v>-3.133172313188694</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3428928680657748</v>
+        <v>-0.4062294708220002</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1884791743272844</v>
+        <v>0.284785039265126</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.06360587465185946</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.525748956651581</v>
+        <v>-2.816782366292744</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3647463259136577</v>
+        <v>-0.4366132792548814</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1983171948432306</v>
+        <v>0.2744542028423674</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.04705272905326705</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.09752730903083</v>
+        <v>-2.387715368614021</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4052877532971011</v>
+        <v>-0.4584459997997549</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1634382710227162</v>
+        <v>0.2443448587140228</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.005820613772946593</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.73970270592034</v>
+        <v>-2.037237869975638</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4254456316636245</v>
+        <v>-0.5138145988349436</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2094098221912476</v>
+        <v>0.3033186988694693</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.06520383090339683</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.332476357755287</v>
+        <v>-1.577814510294486</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5038338568806384</v>
+        <v>-0.6140757993614964</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2096446416517956</v>
+        <v>0.3054467121106433</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1656064104496348</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.9327770406619823</v>
+        <v>-1.134543069974977</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6780003656501068</v>
+        <v>-0.791413285729378</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2491168780888996</v>
+        <v>0.3169071216267393</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2945838400110212</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4166603342357454</v>
+        <v>-0.5822245217803593</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8916635076837492</v>
+        <v>-1.066768074454056</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2670625741608577</v>
+        <v>0.3507138048975306</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4486563916333473</v>
       </c>
       <c r="E14" t="n">
-        <v>0.133979102335785</v>
+        <v>-0.02006002410099753</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.223558553063649</v>
+        <v>-1.442801249448183</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3618326588346477</v>
+        <v>0.4268312954350115</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6216450408866422</v>
       </c>
       <c r="E15" t="n">
-        <v>0.637010570563069</v>
+        <v>0.4661205556690912</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.59035569924978</v>
+        <v>-1.854769120954275</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4269734069526938</v>
+        <v>0.4951411913894405</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8085710598442966</v>
       </c>
       <c r="E16" t="n">
-        <v>1.188713708794848</v>
+        <v>1.040548118475149</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.994754455157429</v>
+        <v>-2.315287288250189</v>
       </c>
       <c r="G16" t="n">
-        <v>0.519162307322486</v>
+        <v>0.5855418043350075</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.006276907505805</v>
       </c>
       <c r="E17" t="n">
-        <v>1.656900408759516</v>
+        <v>1.551070632454253</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.310515878795989</v>
+        <v>-2.656262222744837</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6274451845896293</v>
+        <v>0.7048075232283529</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.20969080423716</v>
       </c>
       <c r="E18" t="n">
-        <v>2.113152790842254</v>
+        <v>2.012089544625777</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.568475119899136</v>
+        <v>-2.975912805578682</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7489743191143867</v>
+        <v>0.8324730696818726</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.411136113378461</v>
       </c>
       <c r="E19" t="n">
-        <v>2.449275196432695</v>
+        <v>2.382473024391187</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.814426852639144</v>
+        <v>-3.276071543425012</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8750199162504637</v>
+        <v>0.9714319073860594</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.600222502735797</v>
       </c>
       <c r="E20" t="n">
-        <v>2.789913454713778</v>
+        <v>2.721878023063886</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.048918480823394</v>
+        <v>-3.523117473859105</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9426387720781372</v>
+        <v>1.075744201047573</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.765933863304223</v>
       </c>
       <c r="E21" t="n">
-        <v>3.090039561803902</v>
+        <v>3.064574153708317</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.288271786722003</v>
+        <v>-3.741777086076668</v>
       </c>
       <c r="G21" t="n">
-        <v>1.080588191062306</v>
+        <v>1.226622718537447</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.902071577788295</v>
       </c>
       <c r="E22" t="n">
-        <v>3.33379679994897</v>
+        <v>3.315945641581908</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.462783510594511</v>
+        <v>-3.932529167808946</v>
       </c>
       <c r="G22" t="n">
-        <v>1.155794460108725</v>
+        <v>1.3185713101606</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.006484996249458</v>
       </c>
       <c r="E23" t="n">
-        <v>3.564649336415403</v>
+        <v>3.571316989253613</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.618134881367317</v>
+        <v>-4.057717521433854</v>
       </c>
       <c r="G23" t="n">
-        <v>1.261388197112086</v>
+        <v>1.396189205562882</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.077520430394064</v>
       </c>
       <c r="E24" t="n">
-        <v>3.707140224758638</v>
+        <v>3.732993542404635</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.749312351077552</v>
+        <v>-4.198347846752669</v>
       </c>
       <c r="G24" t="n">
-        <v>1.319735038811836</v>
+        <v>1.454355510742314</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.114182117978018</v>
       </c>
       <c r="E25" t="n">
-        <v>3.846400973197815</v>
+        <v>3.892478040643424</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.735563214221959</v>
+        <v>-4.157285852071621</v>
       </c>
       <c r="G25" t="n">
-        <v>1.337434326930388</v>
+        <v>1.456618316453049</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.117972633382163</v>
       </c>
       <c r="E26" t="n">
-        <v>3.862479702078247</v>
+        <v>3.917648247131463</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.672958516277831</v>
+        <v>-4.033870842814358</v>
       </c>
       <c r="G26" t="n">
-        <v>1.324487540725056</v>
+        <v>1.430187403926172</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.090726280573792</v>
       </c>
       <c r="E27" t="n">
-        <v>3.969025525258012</v>
+        <v>4.077806097797382</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.58917950715938</v>
+        <v>-3.895868055770974</v>
       </c>
       <c r="G27" t="n">
-        <v>1.278294588350866</v>
+        <v>1.364823424840436</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.034660623609476</v>
       </c>
       <c r="E28" t="n">
-        <v>3.856158484184431</v>
+        <v>4.003145707756651</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.503876916190411</v>
+        <v>-3.758796007680307</v>
       </c>
       <c r="G28" t="n">
-        <v>1.234443731375387</v>
+        <v>1.2987092433223</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.954063913591201</v>
       </c>
       <c r="E29" t="n">
-        <v>3.793614778307977</v>
+        <v>3.944233469589557</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.44058453268325</v>
+        <v>-3.693127373216536</v>
       </c>
       <c r="G29" t="n">
-        <v>1.168178289529418</v>
+        <v>1.205892124655457</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.853882145326013</v>
       </c>
       <c r="E30" t="n">
-        <v>3.627589490731742</v>
+        <v>3.802420813038866</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.327134712403036</v>
+        <v>-3.519344504552742</v>
       </c>
       <c r="G30" t="n">
-        <v>1.103018633870392</v>
+        <v>1.130288187327798</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.738885774568862</v>
       </c>
       <c r="E31" t="n">
-        <v>3.443321475713972</v>
+        <v>3.62675145972189</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.228422100474746</v>
+        <v>-3.370429626681658</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9933561160324451</v>
+        <v>0.9807252687376696</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.613874238338752</v>
       </c>
       <c r="E32" t="n">
-        <v>3.240546027680959</v>
+        <v>3.461309256312626</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.134480898000657</v>
+        <v>-3.232949846618586</v>
       </c>
       <c r="G32" t="n">
-        <v>0.932403693201628</v>
+        <v>0.9114090036666063</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.485646720720436</v>
       </c>
       <c r="E33" t="n">
-        <v>3.05340650611706</v>
+        <v>3.313030220747052</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.017551175299257</v>
+        <v>-3.086907085214308</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8218964352263846</v>
+        <v>0.7902982747260979</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.35768478960058</v>
       </c>
       <c r="E34" t="n">
-        <v>2.822368553764896</v>
+        <v>3.037799855840431</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.847246684254957</v>
+        <v>-2.906580377609684</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7300436011494805</v>
+        <v>0.6920138271128856</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.233186294919665</v>
       </c>
       <c r="E35" t="n">
-        <v>2.538740800980807</v>
+        <v>2.74072091245134</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.752791928571046</v>
+        <v>-2.824212419976889</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6720090388362261</v>
+        <v>0.6477805498730862</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.116370269016268</v>
       </c>
       <c r="E36" t="n">
-        <v>2.268042146702423</v>
+        <v>2.460800257540526</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.661416052463359</v>
+        <v>-2.752860239686841</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6303051026429008</v>
+        <v>0.5997938207885792</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.008361406819419</v>
       </c>
       <c r="E37" t="n">
-        <v>2.020291757886685</v>
+        <v>2.183204620249475</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.614843119507553</v>
+        <v>-2.691558332308247</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5647538779094033</v>
+        <v>0.5327592689692304</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9086364891795904</v>
       </c>
       <c r="E38" t="n">
-        <v>1.809606248596927</v>
+        <v>1.95385858785461</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.52651623686293</v>
+        <v>-2.618455069755255</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5551189609788143</v>
+        <v>0.5356954271070956</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8185278467819542</v>
       </c>
       <c r="E39" t="n">
-        <v>1.546862179784692</v>
+        <v>1.688291196229708</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.388564378196054</v>
+        <v>-2.495329772819448</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4702119035687171</v>
+        <v>0.4738763069946195</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7376671583477559</v>
       </c>
       <c r="E40" t="n">
-        <v>1.353182478804022</v>
+        <v>1.473943113276077</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.30537668717371</v>
+        <v>-2.434126062669811</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4323083831122091</v>
+        <v>0.4362008968712152</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6638501223881618</v>
       </c>
       <c r="E41" t="n">
-        <v>1.082431371347438</v>
+        <v>1.190012839836321</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.20133763797538</v>
+        <v>-2.317057887974789</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3912344949779646</v>
+        <v>0.389381555962004</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5967112595487422</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8355458500513294</v>
+        <v>0.9471308378623866</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.072949335519914</v>
+        <v>-2.20133946773741</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3820862947474205</v>
+        <v>0.3807609371168469</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5351312629352795</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7027831965022261</v>
+        <v>0.805121176933106</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.938143447703704</v>
+        <v>-2.056847429653765</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3168815049583159</v>
+        <v>0.3220975465858653</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4766785989021674</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5163402043511728</v>
+        <v>0.615563929806577</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.879819782989671</v>
+        <v>-1.994300674173928</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2870057604491658</v>
+        <v>0.2863824215175292</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4207750909549571</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4351018198117152</v>
+        <v>0.5344347210682574</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.815629901206675</v>
+        <v>-1.916904789897983</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2479013061801408</v>
+        <v>0.2474896097233358</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3673381983850224</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2457696334149063</v>
+        <v>0.3092276103858045</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.78709232266231</v>
+        <v>-1.871377260982124</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1983470809563913</v>
+        <v>0.1874423091768128</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3156376371890207</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1156583050476268</v>
+        <v>0.1867262623023105</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.696305020007685</v>
+        <v>-1.764820459230178</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1663018486000483</v>
+        <v>0.1433218672622117</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2656297221358953</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03395821055587097</v>
+        <v>0.09513386435437793</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.680399508599449</v>
+        <v>-1.742297918399903</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1347030781790849</v>
+        <v>0.1370951870732908</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.218116640271094</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.04024351913594426</v>
+        <v>-0.02797313496112683</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.631361276268229</v>
+        <v>-1.683945587414063</v>
       </c>
       <c r="G49" t="n">
-        <v>0.09259049513233852</v>
+        <v>0.07172693854281771</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1729113193131372</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1388829405830239</v>
+        <v>-0.1343890450367442</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.577113711436903</v>
+        <v>-1.647864509939678</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06252384545136627</v>
+        <v>0.04151329797874916</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1295623526003732</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.23222459103187</v>
+        <v>-0.2434337132291458</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.570635743929162</v>
+        <v>-1.64642936658729</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01647971372230187</v>
+        <v>0.01212549001099749</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.08813277514251198</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.2926274753329371</v>
+        <v>-0.3367479172475382</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.523817012940627</v>
+        <v>-1.613280787726709</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0001374991095144109</v>
+        <v>-0.01591927262655496</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.04792398469228393</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3846712145816633</v>
+        <v>-0.4411126640872519</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.476421296991889</v>
+        <v>-1.564507260969197</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.001254949795501405</v>
+        <v>-0.03447915881999836</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.008405112432092203</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.4615626944579375</v>
+        <v>-0.5135938075499608</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.46286093058575</v>
+        <v>-1.573493832220403</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.04781385457574116</v>
+        <v>-0.03932497859676169</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.02998950607663501</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5051738526074538</v>
+        <v>-0.5699523078435116</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.454267758171046</v>
+        <v>-1.555043731748774</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.06420242315996147</v>
+        <v>-0.08432675588926364</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.06656655235892503</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5508556914545299</v>
+        <v>-0.6090287057614062</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.422768404820393</v>
+        <v>-1.512008338718108</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1060161450751013</v>
+        <v>-0.1149301357657742</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1012370385489859</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6436600017871609</v>
+        <v>-0.7075528522005805</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.477790568911189</v>
+        <v>-1.597386254890655</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1123849367817046</v>
+        <v>-0.127250533436085</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1340472158928754</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7083329407461413</v>
+        <v>-0.7808360413532132</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.469100419108882</v>
+        <v>-1.601240953567703</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.151108190627762</v>
+        <v>-0.1495522829813777</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1650390564883426</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8156838592192134</v>
+        <v>-0.8895452531734033</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.484030057434321</v>
+        <v>-1.615444786287811</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1668862286145575</v>
+        <v>-0.1627125414235706</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1947447108829891</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.9033288505472326</v>
+        <v>-0.982984490930529</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.510579904493164</v>
+        <v>-1.627087562086255</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1934702312312984</v>
+        <v>-0.1962959937266721</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2231684464459456</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9901260521345719</v>
+        <v>-1.061464204249055</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.545572883480231</v>
+        <v>-1.65190035505772</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2097124188530992</v>
+        <v>-0.2039700156815162</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2506063187129815</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.048986447044143</v>
+        <v>-1.103094340040494</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.525001478894872</v>
+        <v>-1.619979546519433</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2364909861657226</v>
+        <v>-0.2348338316869982</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2767322627157727</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.09984468267478</v>
+        <v>-1.106434265666366</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.590333742105417</v>
+        <v>-1.680316559387412</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2586426952245354</v>
+        <v>-0.2655732238744236</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3015998836505748</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.158546498208397</v>
+        <v>-1.171432292346053</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.685505154584507</v>
+        <v>-1.781303565519295</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2635928114370226</v>
+        <v>-0.276030313877269</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.324815745896493</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.193584001404866</v>
+        <v>-1.165120223262388</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.722853647225175</v>
+        <v>-1.854419026485822</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2881579766137274</v>
+        <v>-0.3039823685719558</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3458039048484302</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.225352939694642</v>
+        <v>-1.190487434129016</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.826754244429883</v>
+        <v>-1.956907657323858</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3135215279562953</v>
+        <v>-0.3488524029982801</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3640788359487272</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.230971528968845</v>
+        <v>-1.198413963244034</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.877591132836834</v>
+        <v>-2.029115556323384</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3457954805664188</v>
+        <v>-0.3682497102808986</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3789064380928281</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.256774833119348</v>
+        <v>-1.183732562634031</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.998668926060798</v>
+        <v>-2.179091391211671</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3848151558613759</v>
+        <v>-0.420951126196668</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.389207946106496</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.227530356510633</v>
+        <v>-1.173886003228611</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.131369977621549</v>
+        <v>-2.319245673442284</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3826145620596689</v>
+        <v>-0.4257280249369588</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3947257330871194</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.201532487664247</v>
+        <v>-1.149369021785369</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.206132224415296</v>
+        <v>-2.443973841916585</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4152849631096786</v>
+        <v>-0.4544772459561553</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.395350479542378</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.287979594783133</v>
+        <v>-1.268180349774537</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.30405254938449</v>
+        <v>-2.561243900355611</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4412291589365107</v>
+        <v>-0.484942173839044</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3907902444076554</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.274475341079254</v>
+        <v>-1.264614143577591</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.41940867673988</v>
+        <v>-2.682610795980354</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4436505440232005</v>
+        <v>-0.4897544479785862</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3808855006438006</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.219272640468141</v>
+        <v>-1.22693629377148</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.517813888647089</v>
+        <v>-2.821268332870227</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.462101254415506</v>
+        <v>-0.5363798341125915</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3660889714294062</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.158030505315868</v>
+        <v>-1.192989328745037</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.592410846937437</v>
+        <v>-2.911316411664633</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4939677800135618</v>
+        <v>-0.5823843209976672</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3468467592886162</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.111463061646154</v>
+        <v>-1.18597402112108</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.684996805667792</v>
+        <v>-3.037697160212583</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4824738248602446</v>
+        <v>-0.5970181477948834</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3241604826060563</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9859560244676455</v>
+        <v>-1.072739807800096</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.734350976909568</v>
+        <v>-3.081586137230358</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.496889300055185</v>
+        <v>-0.5977268756212647</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2993081108626559</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8639237053845709</v>
+        <v>-0.9662086227165736</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.760439723936789</v>
+        <v>-3.117200015466354</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4951906709704417</v>
+        <v>-0.6070720802303984</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2733726196723107</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.6656769183764123</v>
+        <v>-0.7899994896006759</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.79249471502396</v>
+        <v>-3.158147345060173</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4646110780003243</v>
+        <v>-0.5836889413252314</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2474281100314364</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.4703882466504819</v>
+        <v>-0.6063993377239453</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.828412333756977</v>
+        <v>-3.200544456102623</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4768796324131115</v>
+        <v>-0.6192521961450571</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2226941223774247</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2896352044928112</v>
+        <v>-0.4186047613532183</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.863190620665828</v>
+        <v>-3.211680997739366</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4288807049150695</v>
+        <v>-0.5741070874935194</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2002463332101595</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.0295540493552578</v>
+        <v>-0.1627015628513891</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.886967768328174</v>
+        <v>-3.240739143581335</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3745508007923828</v>
+        <v>-0.5267016128139533</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1805593801337246</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2459208937427398</v>
+        <v>0.1086728835368313</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.891662327777104</v>
+        <v>-3.219218702422956</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2989175872722399</v>
+        <v>-0.4505829024351189</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1644077229464462</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4538465119702133</v>
+        <v>0.3251026257602029</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.901227103829867</v>
+        <v>-3.245463894103764</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2650554012198644</v>
+        <v>-0.4156149301957993</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1521653276139638</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7400347117552905</v>
+        <v>0.6140177808910208</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.834406634168057</v>
+        <v>-3.18650652180659</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2165770760698985</v>
+        <v>-0.3580768433134178</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1435168378127525</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9423490597566818</v>
+        <v>0.8411638294048558</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.786247907452707</v>
+        <v>-3.128455491635063</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1947779011622462</v>
+        <v>-0.3402293444704161</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1395728759469225</v>
       </c>
       <c r="E86" t="n">
-        <v>1.184175289039166</v>
+        <v>1.099677488403167</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.712424328580475</v>
+        <v>-3.055007623899708</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1849465897737443</v>
+        <v>-0.3216383523224585</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1408908202104223</v>
       </c>
       <c r="E87" t="n">
-        <v>1.376254558164048</v>
+        <v>1.305509858868041</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.592257146926896</v>
+        <v>-2.936816585238793</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1563431397962906</v>
+        <v>-0.2799886990693639</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.148174928773611</v>
       </c>
       <c r="E88" t="n">
-        <v>1.538846602250868</v>
+        <v>1.442649913114165</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.452526759566623</v>
+        <v>-2.772331957292023</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1318639734350073</v>
+        <v>-0.2341342526707682</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.161911227203259</v>
       </c>
       <c r="E89" t="n">
-        <v>1.605198652832936</v>
+        <v>1.52504226757403</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.219943268219579</v>
+        <v>-2.518992865315242</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1135389067021119</v>
+        <v>-0.2184025686554055</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1822355866551346</v>
       </c>
       <c r="E90" t="n">
-        <v>1.667483752342448</v>
+        <v>1.583272004503844</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.013837653291522</v>
+        <v>-2.278881123055097</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.08023357822760743</v>
+        <v>-0.1772256039267906</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2083756201211525</v>
       </c>
       <c r="E91" t="n">
-        <v>1.652765146571164</v>
+        <v>1.582113765138699</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.699380240059849</v>
+        <v>-1.928451198229501</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08480798330321786</v>
+        <v>-0.1539949451908106</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2385567818148514</v>
       </c>
       <c r="E92" t="n">
-        <v>1.647180712854859</v>
+        <v>1.568144751879138</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.402863033614043</v>
+        <v>-1.595706533346891</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.06295696513804194</v>
+        <v>-0.1466240538123103</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2710713793878428</v>
       </c>
       <c r="E93" t="n">
-        <v>1.61219383307456</v>
+        <v>1.522140874914739</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.089608993877594</v>
+        <v>-1.260073284139202</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05451139352711158</v>
+        <v>-0.1167416001757159</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.3014674811374802</v>
       </c>
       <c r="E94" t="n">
-        <v>1.599045773045902</v>
+        <v>1.510772563420832</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8197593491812439</v>
+        <v>-0.9400796209246868</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.07366290277700061</v>
+        <v>-0.1098159508912417</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3251335732266798</v>
       </c>
       <c r="E95" t="n">
-        <v>1.569868997632305</v>
+        <v>1.481722041587322</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5904730890127</v>
+        <v>-0.6860379003282927</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1220784060972614</v>
+        <v>-0.162401481878429</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.338996486763</v>
       </c>
       <c r="E96" t="n">
-        <v>1.495579439363038</v>
+        <v>1.405675911769021</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3495623506660149</v>
+        <v>-0.4244032772270621</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.183528524200305</v>
+        <v>-0.2326710529672495</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3407104522705833</v>
       </c>
       <c r="E97" t="n">
-        <v>1.40856815561816</v>
+        <v>1.317794271218423</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1997450951536824</v>
+        <v>-0.2413215579255673</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2011320547726075</v>
+        <v>-0.2633140776877487</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.331240924733883</v>
       </c>
       <c r="E98" t="n">
-        <v>1.318113259732363</v>
+        <v>1.232171166933824</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.07409411669546148</v>
+        <v>-0.08856814427536965</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2353211583077199</v>
+        <v>-0.301539026340903</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3144218245286635</v>
       </c>
       <c r="E99" t="n">
-        <v>1.23671080653086</v>
+        <v>1.153788431002901</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08253961230020729</v>
+        <v>0.1125958933296748</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2698725547248206</v>
+        <v>-0.3450129523381511</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2977662508195808</v>
       </c>
       <c r="E100" t="n">
-        <v>1.062116743366991</v>
+        <v>0.9680694146951474</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1442080820055267</v>
+        <v>0.1773987453928025</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.258747601580936</v>
+        <v>-0.3160069547140437</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2872815993021742</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9506622785807578</v>
+        <v>0.8320040406814534</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1826123473376449</v>
+        <v>0.221762545657426</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2918034724986505</v>
+        <v>-0.3686803142786828</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2907233670396543</v>
       </c>
       <c r="E102" t="n">
-        <v>0.820108757722836</v>
+        <v>0.707828460340286</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1976255447957983</v>
+        <v>0.2180926529454329</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2648785242236075</v>
+        <v>-0.3365606715997765</v>
       </c>
     </row>
   </sheetData>
